--- a/usefulTools/TestFilesAndDocuments/UAT_Registry_Requirements.xlsx
+++ b/usefulTools/TestFilesAndDocuments/UAT_Registry_Requirements.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="168" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="168"/>
   </bookViews>
   <sheets>
-    <sheet name="UAT Items List" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="UAT Items List" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="212">
   <si>
     <t>Result coding: 1 = Pass (full functionality with no unexpected errors), 0 = Fail (lack of required functionality or reproducible error during testing), 9 = Conditional (partial functionality, error during testing which cannot be reproduced, poor user experience or other constraints) X = Functionality which is desirable for future iterations of the system. these items are not necessary for user acceptance of this version of the system</t>
   </si>
@@ -127,24 +131,6 @@
   </si>
   <si>
     <t>Lisa</t>
-  </si>
-  <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>On creation of a study, a user with "Study Administrator" access can set the system of biospecimen IDs for a study and all of its substudies.</t>
-  </si>
-  <si>
-    <t>1. The user is able to set the system of biospecimen IDs for a study and all of its sub-studies</t>
-  </si>
-  <si>
-    <t>1. The user is unable to set the sysem of biospecimen IDs for a study and all of its substudies</t>
-  </si>
-  <si>
-    <t>X / 9</t>
-  </si>
-  <si>
-    <t>Is able to perform all of these tasks, but Lisa has asked about some alternative formats.  This can be added in a future release as it is not critical right now</t>
   </si>
   <si>
     <t>2.2.4</t>
@@ -675,119 +661,94 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="D/MM/YYYY\ H:MM" numFmtId="166"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="167"/>
-    <numFmt formatCode="DD/MM/YY\ HH:MM" numFmtId="168"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy\ h:mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ hh:mm"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00006100"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF5B4573"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00006100"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF704800"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="009C6500"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="009C0006"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="009C0006"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="005B4573"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00704800"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="009C6500"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -799,268 +760,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00000000"/>
-        <bgColor rgb="00003300"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thick">
-        <color rgb="007F7F7F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thick">
-        <color rgb="007F7F7F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thick">
-        <color rgb="007F7F7F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thick">
-        <color rgb="007F7F7F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="12" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+  <cellXfs count="52">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1119,53 +1035,376 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="005B4573"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100">
-      <selection activeCell="I13" activeCellId="0" pane="topLeft" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.54509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.4117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="44.4156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="40.6392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="34.1529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="17.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.40392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="37.4392156862745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3294117647059"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="1020" min="13" style="7" width="9.72549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="9.72549019607843"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="19.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="6"/>
+    <col min="9" max="9" width="10.83203125" style="7"/>
+    <col min="13" max="1020" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.95" outlineLevel="0" r="1">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:13" ht="69" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="2">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="3">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="4">
+    <row r="4" spans="1:13" ht="36" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1209,8 +1448,8 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1223,8 +1462,8 @@
       <c r="G5" s="23"/>
       <c r="H5" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -1237,8 +1476,8 @@
       <c r="G6" s="23"/>
       <c r="H6" s="19"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" ht="60" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -1255,13 +1494,13 @@
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="19" t="n">
+      <c r="H7" s="19">
         <v>1</v>
       </c>
       <c r="I7" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" ht="60" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -1278,13 +1517,13 @@
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="19" t="n">
+      <c r="H8" s="19">
         <v>1</v>
       </c>
       <c r="I8" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" ht="124.5" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -1302,18 +1541,18 @@
       <c r="F9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="27" t="n">
-        <v>41337.6354166667</v>
-      </c>
-      <c r="H9" s="30" t="n">
+      <c r="G9" s="27">
+        <v>41337.635416666701</v>
+      </c>
+      <c r="H9" s="30">
         <v>1</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -1325,8 +1564,8 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" ht="69" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -1344,16 +1583,16 @@
       <c r="F11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="27" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="H11" s="30" t="n">
+      <c r="G11" s="27">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="H11" s="30">
         <v>1</v>
       </c>
       <c r="I11" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="127.1" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13" ht="83.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -1371,112 +1610,112 @@
       <c r="F12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="27" t="n">
-        <v>41262.5541666667</v>
-      </c>
-      <c r="H12" s="31" t="s">
+      <c r="G12" s="27">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="H12" s="30">
+        <v>1</v>
+      </c>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" ht="83.25" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>46</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="27" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="H13" s="30" t="n">
+      <c r="G13" s="27">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="H13" s="30">
         <v>1</v>
       </c>
       <c r="I13" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:13" ht="83.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="E14" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>50</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="27" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="H14" s="30" t="n">
+      <c r="G14" s="27">
+        <v>41262.554166666698</v>
+      </c>
+      <c r="H14" s="30">
         <v>1</v>
       </c>
       <c r="I14" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:13" ht="15" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" ht="150.75" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="D16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="27" t="n">
-        <v>41262.5541666667</v>
-      </c>
-      <c r="H15" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="F16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="27">
+        <v>41337.638194444502</v>
+      </c>
+      <c r="H16" s="30">
+        <v>1</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="150.75" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="150.75" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -1491,252 +1730,252 @@
       <c r="E17" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="30">
+        <v>1</v>
+      </c>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="206.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="27" t="n">
-        <v>41337.6381944445</v>
-      </c>
-      <c r="H17" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="150.75" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="G18" s="27">
+        <v>41337.638194444502</v>
+      </c>
+      <c r="H18" s="30">
+        <v>1</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="206.25" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" ht="90.75" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="27" t="n">
-        <v>41337.6381944445</v>
-      </c>
-      <c r="H19" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="1" t="s">
+      <c r="E20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="F20" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="27">
+        <v>41262.579166666699</v>
+      </c>
+      <c r="H20" s="30">
+        <v>1</v>
+      </c>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="83.25" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90.75" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="27" t="n">
-        <v>41262.5791666667</v>
-      </c>
-      <c r="H21" s="30" t="n">
+      <c r="G21" s="27">
+        <v>41262.586805555598</v>
+      </c>
+      <c r="H21" s="30">
         <v>1</v>
       </c>
       <c r="I21" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:10" ht="85.5" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="E22" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="F22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="27">
+        <v>41262.564583217601</v>
+      </c>
+      <c r="H22" s="31">
+        <v>1</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="27" t="n">
-        <v>41262.5868055556</v>
-      </c>
-      <c r="H22" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="85.5" outlineLevel="0" r="23">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:10" ht="73.5" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="27" t="n">
-        <v>41262.5645832176</v>
-      </c>
-      <c r="H23" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="27">
+        <v>41262.581250000003</v>
+      </c>
+      <c r="H23" s="30">
+        <v>1</v>
+      </c>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="98.25" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="E24" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>95</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="27" t="n">
-        <v>41262.58125</v>
-      </c>
-      <c r="H24" s="30" t="n">
+      <c r="G24" s="27">
+        <v>41262.581944328696</v>
+      </c>
+      <c r="H24" s="30">
         <v>1</v>
       </c>
       <c r="I24" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="98.25" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:10" ht="113" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="C25" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="D25" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="E25" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="F25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="27">
+        <v>41262.564583217601</v>
+      </c>
+      <c r="H25" s="30">
+        <v>1</v>
+      </c>
+      <c r="I25" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="26" t="s">
+    </row>
+    <row r="26" spans="1:10" ht="171.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="27" t="n">
-        <v>41262.5819443287</v>
-      </c>
-      <c r="H25" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="27" t="n">
-        <v>41262.5645832176</v>
-      </c>
-      <c r="H26" s="30" t="n">
+      <c r="G26" s="27">
+        <v>41262.595833217601</v>
+      </c>
+      <c r="H26" s="31">
         <v>1</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="171.35" outlineLevel="0" r="27">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:10" ht="171.25" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="24" t="s">
@@ -1754,18 +1993,21 @@
       <c r="F27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="27" t="n">
-        <v>41262.5958332176</v>
-      </c>
-      <c r="H27" s="32" t="n">
+      <c r="G27" s="27">
+        <v>41262.601388888899</v>
+      </c>
+      <c r="H27" s="31">
         <v>1</v>
       </c>
       <c r="I27" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="171.35" outlineLevel="0" r="28">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:10" ht="153" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -1781,79 +2023,72 @@
         <v>117</v>
       </c>
       <c r="F28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="27">
+        <v>41337.657638888901</v>
+      </c>
+      <c r="H28" s="30">
+        <v>1</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="109.5" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="27" t="n">
-        <v>41262.6013888889</v>
-      </c>
-      <c r="H28" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="153" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="27" t="n">
-        <v>41337.6576388889</v>
-      </c>
-      <c r="H29" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="28" t="s">
+      <c r="G29" s="27">
+        <v>41337.6020832176</v>
+      </c>
+      <c r="H29" s="30">
+        <v>1</v>
+      </c>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:10" ht="124.5" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="30">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="C30" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="D30" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="E30" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="27" t="n">
-        <v>41337.6020832176</v>
-      </c>
-      <c r="H30" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="31">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:10" ht="109.5" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -1870,38 +2105,42 @@
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="28" t="s">
+      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:10" ht="93.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="32">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="C32" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="D32" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="E32" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="F32" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="27">
+        <v>40973.6645832176</v>
+      </c>
+      <c r="H32" s="31">
+        <v>1</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="93.75" outlineLevel="0" r="33">
-      <c r="A33" s="1" t="s">
+    </row>
+    <row r="33" spans="1:13" ht="109.5" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -1917,752 +2156,717 @@
         <v>145</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="27" t="n">
-        <v>40973.6645832176</v>
-      </c>
-      <c r="H33" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="27">
+        <v>41262.604860995401</v>
+      </c>
+      <c r="H33" s="30">
+        <v>1</v>
+      </c>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:13" ht="124.5" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="34">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="C34" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="D34" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="E34" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>151</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="27" t="n">
-        <v>41262.6048609954</v>
-      </c>
-      <c r="H34" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="35">
-      <c r="A35" s="1" t="s">
+      <c r="G34" s="27">
+        <v>41262.605555555601</v>
+      </c>
+      <c r="H34" s="30">
+        <v>1</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="124.5" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B35" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="D35" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="E35" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>156</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="27" t="n">
-        <v>41262.6055555556</v>
-      </c>
-      <c r="H35" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="28" t="s">
+      <c r="G35" s="27">
+        <v>41262.613888888904</v>
+      </c>
+      <c r="H35" s="30">
+        <v>1</v>
+      </c>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="36">
-      <c r="A36" s="1" t="s">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:13" ht="100" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="C37" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="D37" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="E37" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="27" t="n">
-        <v>41262.6138888889</v>
-      </c>
-      <c r="H36" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="1" t="s">
+      <c r="G37" s="27">
+        <v>41262.615972106498</v>
+      </c>
+      <c r="H37" s="30">
+        <v>1</v>
+      </c>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:13" ht="100" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="38">
-      <c r="A38" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>168</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="27" t="n">
-        <v>41262.6159721065</v>
-      </c>
-      <c r="H38" s="30" t="n">
+      <c r="G38" s="27">
+        <v>41262.615972106498</v>
+      </c>
+      <c r="H38" s="30">
         <v>1</v>
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="39">
-      <c r="A39" s="1" t="s">
-        <v>169</v>
+    <row r="39" spans="1:13" ht="100" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="27" t="n">
-        <v>41262.6159721065</v>
-      </c>
-      <c r="H39" s="30" t="n">
+      <c r="G39" s="27">
+        <v>41262.616666666698</v>
+      </c>
+      <c r="H39" s="30">
         <v>1</v>
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="40">
-      <c r="A40" s="1" t="s">
-        <v>171</v>
+    <row r="40" spans="1:13" ht="100" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="27" t="n">
-        <v>41262.6166666667</v>
-      </c>
-      <c r="H40" s="30" t="n">
+      <c r="G40" s="27">
+        <v>41262.616666666698</v>
+      </c>
+      <c r="H40" s="30">
         <v>1</v>
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="41">
-      <c r="A41" s="1" t="s">
-        <v>173</v>
+    <row r="41" spans="1:13" ht="100" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="27" t="n">
-        <v>41262.6166666667</v>
-      </c>
-      <c r="H41" s="30" t="n">
+      <c r="G41" s="27">
+        <v>41262.618055555598</v>
+      </c>
+      <c r="H41" s="30">
         <v>1</v>
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="42">
-      <c r="A42" s="1" t="s">
-        <v>175</v>
+    <row r="42" spans="1:13" ht="100" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="27" t="n">
-        <v>41262.6180555556</v>
-      </c>
-      <c r="H42" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="43">
-      <c r="A43" s="1" t="s">
-        <v>177</v>
+      <c r="G42" s="27">
+        <v>41337.677083217597</v>
+      </c>
+      <c r="H42" s="30">
+        <v>1</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="100" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="27" t="n">
-        <v>41337.6770832176</v>
-      </c>
-      <c r="H43" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="28" t="s">
+      <c r="G43" s="27">
+        <v>41262.619444328702</v>
+      </c>
+      <c r="H43" s="30">
+        <v>1</v>
+      </c>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="1:13" ht="36" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B45" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1">
+      <c r="B46" s="22"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:13" ht="75.75" customHeight="1">
+      <c r="B47" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:13" ht="70.5" customHeight="1">
+      <c r="B48" s="24" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="44">
-      <c r="A44" s="1" t="s">
+      <c r="C48" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="D48" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="27" t="n">
-        <v>41262.6194443287</v>
-      </c>
-      <c r="H44" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="45">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="46">
-      <c r="B46" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
-      <c r="B47" s="22"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75.75" outlineLevel="0" r="48">
-      <c r="B48" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
+      <c r="E48" s="25" t="s">
+        <v>181</v>
+      </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="19" t="n">
+      <c r="H48" s="19">
         <v>1</v>
       </c>
       <c r="I48" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="70.5" outlineLevel="0" r="49">
+    <row r="49" spans="1:1024" ht="60" customHeight="1">
       <c r="B49" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
-      <c r="H49" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="50">
-      <c r="B50" s="24" t="s">
+      <c r="H49" s="37">
+        <v>1</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1024" s="44" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="E50" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42">
+        <v>1</v>
+      </c>
+      <c r="I50" s="43"/>
+      <c r="AMG50"/>
+      <c r="AMH50"/>
+      <c r="AMI50"/>
+      <c r="AMJ50"/>
+    </row>
+    <row r="51" spans="1:1024" ht="36" customHeight="1">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+    </row>
+    <row r="52" spans="1:1024" ht="15.75" customHeight="1">
+      <c r="B52" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="28" t="s">
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="1:1024" ht="15" customHeight="1">
+      <c r="B53" s="22" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45.75" outlineLevel="0" r="51" s="45">
-      <c r="A51" s="39"/>
-      <c r="B51" s="40" t="s">
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="1:1024" ht="61.5" customHeight="1">
+      <c r="B54" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C54" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="45">
+        <v>41338.534722106502</v>
+      </c>
+      <c r="H54" s="19">
+        <v>1</v>
+      </c>
+      <c r="I54" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="41" t="s">
+    </row>
+    <row r="55" spans="1:1024" ht="36" customHeight="1">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+    </row>
+    <row r="56" spans="1:1024" ht="15.75" customHeight="1">
+      <c r="B56" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="1:1024" ht="15.75" customHeight="1">
+      <c r="B57" s="22"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="1:1024" ht="15" customHeight="1">
+      <c r="B58" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="44"/>
-      <c r="AMG51" s="0"/>
-      <c r="AMH51" s="0"/>
-      <c r="AMI51" s="0"/>
-      <c r="AMJ51" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="52">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="53">
-      <c r="B53" s="22" t="s">
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="1:1024" ht="73.5" customHeight="1">
+      <c r="B59" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
-      <c r="B54" s="22" t="s">
+      <c r="C59" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="55">
-      <c r="B55" s="24" t="s">
+      <c r="D59" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="E59" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26" t="s">
+      <c r="F59" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="46" t="n">
-        <v>41338.5347221065</v>
-      </c>
-      <c r="H55" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" s="28" t="s">
+      <c r="G59" s="45">
+        <v>41338.534722106502</v>
+      </c>
+      <c r="H59" s="19">
+        <v>1</v>
+      </c>
+      <c r="I59" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="56">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="57">
-      <c r="B57" s="22" t="s">
+    <row r="60" spans="1:1024" ht="72" customHeight="1">
+      <c r="B60" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="58">
-      <c r="B58" s="22"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
-      <c r="B59" s="22" t="s">
+      <c r="C60" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="60">
-      <c r="B60" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>204</v>
-      </c>
       <c r="E60" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F60" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="46" t="n">
-        <v>41338.5347221065</v>
-      </c>
-      <c r="H60" s="19" t="n">
+      <c r="G60" s="45">
+        <v>41338.534722106502</v>
+      </c>
+      <c r="H60" s="19">
         <v>1</v>
       </c>
       <c r="I60" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1024" ht="15" customHeight="1">
+      <c r="B61" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+    </row>
+    <row r="62" spans="1:1024" ht="105" customHeight="1">
+      <c r="B62" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="19">
+        <v>1</v>
+      </c>
+      <c r="I62" s="28"/>
+    </row>
+    <row r="63" spans="1:1024" ht="69.75" customHeight="1">
+      <c r="B63" s="24" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="61">
-      <c r="B61" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="46" t="n">
-        <v>41338.5347221065</v>
-      </c>
-      <c r="H61" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
-      <c r="B62" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="63">
-      <c r="B63" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="C63" s="24" t="s">
+        <v>205</v>
+      </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
-      <c r="H63" s="19" t="n">
+      <c r="H63" s="19">
         <v>1</v>
       </c>
       <c r="I63" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69.75" outlineLevel="0" r="64">
-      <c r="B64" s="24" t="s">
+    <row r="64" spans="1:1024" s="44" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A64" s="38"/>
+      <c r="B64" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="42">
+        <v>1</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AMG64"/>
+      <c r="AMH64"/>
+      <c r="AMI64"/>
+      <c r="AMJ64"/>
+    </row>
+    <row r="65" spans="1:1024" s="44" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A65" s="38"/>
+      <c r="B65" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="42">
+        <v>1</v>
+      </c>
+      <c r="I65" s="43"/>
+      <c r="AMG65"/>
+      <c r="AMH65"/>
+      <c r="AMI65"/>
+      <c r="AMJ65"/>
+    </row>
+    <row r="66" spans="1:1024" s="44" customFormat="1" ht="60" customHeight="1">
+      <c r="A66" s="38"/>
+      <c r="B66" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42">
+        <v>1</v>
+      </c>
+      <c r="I66" s="43"/>
+      <c r="AMG66"/>
+      <c r="AMH66"/>
+      <c r="AMI66"/>
+      <c r="AMJ66"/>
+    </row>
+    <row r="67" spans="1:1024" ht="36" customHeight="1">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+    </row>
+    <row r="68" spans="1:1024" ht="30.75" customHeight="1">
+      <c r="B68" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="48"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+    </row>
+    <row r="69" spans="1:1024" ht="45" customHeight="1">
+      <c r="B69" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="65" s="45">
-      <c r="A65" s="39"/>
-      <c r="B65" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="AMG65" s="0"/>
-      <c r="AMH65" s="0"/>
-      <c r="AMI65" s="0"/>
-      <c r="AMJ65" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.5" outlineLevel="0" r="66" s="45">
-      <c r="A66" s="39"/>
-      <c r="B66" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" s="44"/>
-      <c r="AMG66" s="0"/>
-      <c r="AMH66" s="0"/>
-      <c r="AMI66" s="0"/>
-      <c r="AMJ66" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="67" s="45">
-      <c r="A67" s="39"/>
-      <c r="B67" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" s="44"/>
-      <c r="AMG67" s="0"/>
-      <c r="AMH67" s="0"/>
-      <c r="AMI67" s="0"/>
-      <c r="AMJ67" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="68">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="69">
-      <c r="B69" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C69" s="49"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="70">
-      <c r="B70" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="71">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-    </row>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="19">
+        <v>1</v>
+      </c>
+      <c r="I69" s="28"/>
+    </row>
+    <row r="70" spans="1:1024" ht="36" customHeight="1">
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+    </row>
+    <row r="71" spans="1:1024" ht="14"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="63" workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75686274509804"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/usefulTools/TestFilesAndDocuments/UAT_Registry_Requirements.xlsx
+++ b/usefulTools/TestFilesAndDocuments/UAT_Registry_Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="20560" tabRatio="168"/>
   </bookViews>
   <sheets>
     <sheet name="UAT Items List" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="208">
   <si>
     <t>Result coding: 1 = Pass (full functionality with no unexpected errors), 0 = Fail (lack of required functionality or reproducible error during testing), 9 = Conditional (partial functionality, error during testing which cannot be reproduced, poor user experience or other constraints) X = Functionality which is desirable for future iterations of the system. these items are not necessary for user acceptance of this version of the system</t>
   </si>
@@ -106,12 +106,6 @@
     <t>1. The user is unable to be located under "Manage Users". 2. The user's access rights for the new substudy are different to their access rights for the WARTN study.</t>
   </si>
   <si>
-    <t>cellis</t>
-  </si>
-  <si>
-    <t>repeated test case. User was not locked out of system</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>1. Study Administrator is unable to modify substudy specific access for users with access to WARTN. 2. The modified user is unable to confirm the appropriate access changes. 3. The user's access to WARTN is affected by substudy access modifications. 4. The user's access to a substudy is governed by WARTN access. 5. Substudy access modifications affect the user's access to WARTN. 6. Substudy access modifications affect  the user's access to other substudies.</t>
   </si>
   <si>
-    <t>on replication of test case, user was not altered</t>
-  </si>
-  <si>
     <t>2.3.2</t>
   </si>
   <si>
@@ -259,24 +250,6 @@
     <t>1. The user is unable to see a list of all studies and substudies. 2. The user is unable to view the study details. 3. The user is unable to modify study details. 4. The user is unable to set the substudy's status to "Archived".</t>
   </si>
   <si>
-    <t>2.4.3</t>
-  </si>
-  <si>
-    <t>A user with "Study Administrator" access to a study and all of its substudies can view a list of all archived substudies in the Study &gt; Study Details tab.</t>
-  </si>
-  <si>
-    <t>1. Log in as a user with "Study Administrator" access to WARTN and all of its substudies. 2. Identify an archived substudy in the Study &gt; Study Details tab. 3. Identify that the study is Archived.</t>
-  </si>
-  <si>
-    <t>1. The user is able to identify archived substudies in the Study &gt; Study Details tab. 2. The user is able to identify if a substudy's status is "Archived". 3. The user is able to identify active studies in the Study &gt; Study Details tab.</t>
-  </si>
-  <si>
-    <t>1. The user is unable to identify archived substudies in the Study &gt; Study Details tab. 2. The user is unable to identify if a substudy's status is "Archived". 3. The user is unable to identify active studies in the Study &gt; Study Details tab.</t>
-  </si>
-  <si>
-    <t>study administrator cannot see archived studies in the list on study details page.</t>
-  </si>
-  <si>
     <t>2.4.4</t>
   </si>
   <si>
@@ -328,30 +301,12 @@
     <t>2.4.7</t>
   </si>
   <si>
-    <t>A user with access to a study and all of its substudies can identify the collections and biospecimens for a patient for all active studies when viewing the Subject &gt; Subject Biospecimen tab from the context of the parent study.</t>
-  </si>
-  <si>
-    <t>1. Log in as a user with access to WARTN and all of its substudies. 2. Under Study &gt; Study Details, enter the context of the WARTN study. 3. Under Subject &gt; Demographic Data, enter the context of a patient with biospecimens associated to multiple active substudies, and an archived substudy. 4. In the Subject &gt; Subject Biospecimen tab, identify the collections associated with active substudies, and the collections associated with archived substudies.</t>
-  </si>
-  <si>
-    <t>1. The user is able to view the Subject &gt; Subject Biospecimen tab from the context of the parent study. 2. The user is able to see all collections, biospecimens, and transactions assigned to active substudies. 3. The user is unable to identify collections, biospecimens, or transactions assigned to archived substudies.</t>
-  </si>
-  <si>
-    <t>1. The user is unable to view the Subject &gt; Subject Biospecimen tab from the context of the parent study. 2. The user is unable to see all collections, biospecimens, and transactions assigned to active substudies. 3. The user is able to identify collections, biospecimens, or transactions assigned to archived substudies.</t>
-  </si>
-  <si>
     <t>Lisa; “  I am happy to accept that you can see a list of substudies the patient has consented to when in the Subject page of the parent study but you have to be in the context of the substudy to see the collections and biospecimens for that substudy.  The vast majority of our patients are only in one study and we have no patients in more than two so its not a big deal practically.  Happy to sign off.”</t>
   </si>
   <si>
     <t>2.4.8</t>
   </si>
   <si>
-    <t>A user with access to a study and all of its substudies can identify the collections and biospecimens for a patient for all active studies when viewing the Subject &gt; Biospecimen tab from the context of the parent study.</t>
-  </si>
-  <si>
-    <t>1. Log in as a user with access to WARTN and all of its substudies. 2. Under Study &gt; Study Details, enter the context of the WARTN study. 3. Under Subject &gt; Demographic Data, enter the context of a patient with biospecimens associated to multiple active substudies, and an archived substudy. 4. In the Subject &gt; Biospecimen tab, identify the collections associated with active substudies, and the collections assosciated with archived substudies.</t>
-  </si>
-  <si>
     <t>1. The user is able to view the Subject &gt; Biospecimen tab from the context of the parent study. 2. The user is able to see all collections, biospecimens, and transactions assigned to active substudies. 3. The user is unable to identify collections, biospecimens, or transactions assigned to archived substudies.</t>
   </si>
   <si>
@@ -619,18 +574,12 @@
     <t>1. The user is able to create a new collection for a subject.</t>
   </si>
   <si>
-    <t>new subject created successfully</t>
-  </si>
-  <si>
     <t>A user with "LIMS Read-Only" access to a study cannot define new collections.</t>
   </si>
   <si>
     <t>1. The user is unable to create a new subject.</t>
   </si>
   <si>
-    <t>unable to create new subjects</t>
-  </si>
-  <si>
     <t>sequential collection numbering across all studies and substudies (C-01234)</t>
   </si>
   <si>
@@ -649,13 +598,52 @@
     <t>USER EXPERIENCE: When a collection is in context, the study or substudy that the collection is associated with should be readily visible.</t>
   </si>
   <si>
-    <t>USER EXPERIENCE: When a collection is in context, the collection ID should always be visible, with the consent status for the assosciated substudy.</t>
-  </si>
-  <si>
     <t>SECURITY &amp; BACKUP</t>
   </si>
   <si>
-    <t>Users of all access levels should only be able to see the studies and substudies they have access to.</t>
+    <t>Users of all access levels should only be able to see the studies and substudies they have access to.  Note that a parent study permission is passed down to substudies</t>
+  </si>
+  <si>
+    <t>in discussion</t>
+  </si>
+  <si>
+    <t>A user with access to a substudy  can identify the collections and biospecimens for a patient for only that substudy in context  when viewing the Subject &gt; Subject Biospecimen tab from the context of the substudy.</t>
+  </si>
+  <si>
+    <t>1. The user is able to view the Subject &gt; Subject Biospecimen tab from the context of the child study. 2. The user is able to see all collections, biospecimens, and transactions assigned to the substudy. 3. The user is unable to identify collections, biospecimens, or transactions assigned to archived substudies.</t>
+  </si>
+  <si>
+    <t>1. The user is unable to view the Subject &gt; Subject Biospecimen tab from the context of the sub study. 2. The user is unable to see all collections, biospecimens, and transactions assigned to active substudies. 3. The user is able to identify collections, biospecimens, or transactions assigned to archived substudies.</t>
+  </si>
+  <si>
+    <t>A user with access to a substudy can identify the collections and biospecimens for a patient for the substudies when viewing the Subject &gt; Biospecimen tab from the context of the substudy.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user with access to WARTN and all of its substudies. 2. Under Study &gt; Study Details, enter the context of the WARTN substudy. 3. Under Subject &gt; Demographic Data, enter the context of a patient with biospecimens associated to multiple active substudies, and an archived substudy. 4. In the Subject &gt; Biospecimen tab, identify the collections associated with active substudies, and the collections assosciated with archived substudies.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user with access to WARTN and all of its substudies. 2. Under Study &gt; Study Details, enter the context of the WARTN substudy. 3. Under Subject &gt; Demographic Data, enter the context of a patient with biospecimens associated to multiple active substudies, and an archived substudy. 4. In the Subject &gt; Biospecimen tab, identify the biospecimens associated with active substudies, and thebiospecimens assosciated with archived substudies.</t>
+  </si>
+  <si>
+    <t>LISA</t>
+  </si>
+  <si>
+    <t>Lisaq</t>
+  </si>
+  <si>
+    <t>8/7/2013 12.05</t>
+  </si>
+  <si>
+    <t>new collection created successfully</t>
+  </si>
+  <si>
+    <t>unable to create new collections</t>
+  </si>
+  <si>
+    <t>in discussion, propsed change</t>
+  </si>
+  <si>
+    <t>ARK-1042</t>
   </si>
 </sst>
 </file>
@@ -667,7 +655,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ hh:mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -750,6 +738,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -813,10 +817,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -971,8 +979,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1372,21 +1393,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" zoomScalePageLayoutView="123" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="32" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="5"/>
-    <col min="7" max="7" width="19.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="6"/>
-    <col min="9" max="9" width="10.83203125" style="7"/>
+    <col min="9" max="9" width="15" style="7" customWidth="1"/>
     <col min="13" max="1020" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
@@ -1404,7 +1425,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="36" customHeight="1">
+    <row r="4" spans="1:13" ht="36" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1441,14 +1462,14 @@
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1492,8 +1513,12 @@
       <c r="E7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="27">
+        <v>41493.496527777781</v>
+      </c>
       <c r="H7" s="19">
         <v>1</v>
       </c>
@@ -1515,14 +1540,18 @@
       <c r="E8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="27">
+        <v>41493.478472222225</v>
+      </c>
       <c r="H8" s="19">
         <v>1</v>
       </c>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:13" ht="124.5" customHeight="1">
+    <row r="9" spans="1:13" ht="131" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1539,24 +1568,22 @@
         <v>27</v>
       </c>
       <c r="F9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="27">
+        <v>41493.498611111114</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1</v>
+      </c>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="27">
-        <v>41337.635416666701</v>
-      </c>
-      <c r="H9" s="30">
-        <v>1</v>
-      </c>
-      <c r="I9" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -1566,25 +1593,25 @@
     </row>
     <row r="11" spans="1:13" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="E11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="27">
-        <v>41262.555555555598</v>
+        <v>41493.458333333336</v>
       </c>
       <c r="H11" s="30">
         <v>1</v>
@@ -1593,25 +1620,25 @@
     </row>
     <row r="12" spans="1:13" ht="83.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="E12" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="F12" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="27">
-        <v>41262.555555555598</v>
+        <v>41493.465277777781</v>
       </c>
       <c r="H12" s="30">
         <v>1</v>
@@ -1620,25 +1647,25 @@
     </row>
     <row r="13" spans="1:13" ht="83.25" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="27">
-        <v>41262.555555555598</v>
+        <v>41493.466666666667</v>
       </c>
       <c r="H13" s="30">
         <v>1</v>
@@ -1647,25 +1674,25 @@
     </row>
     <row r="14" spans="1:13" ht="83.25" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="E14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>48</v>
-      </c>
       <c r="F14" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="27">
-        <v>41262.554166666698</v>
+        <v>41493.467361111114</v>
       </c>
       <c r="H14" s="30">
         <v>1</v>
@@ -1674,10 +1701,10 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1685,53 +1712,57 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:13" ht="150.75" customHeight="1">
+    <row r="16" spans="1:13" ht="187" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="E16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="27">
-        <v>41337.638194444502</v>
+        <v>34</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="H16" s="30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="150.75" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="27">
+        <v>41493.479166666664</v>
+      </c>
       <c r="H17" s="30">
         <v>1</v>
       </c>
@@ -1739,39 +1770,37 @@
     </row>
     <row r="18" spans="1:10" ht="206.25" customHeight="1">
       <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>66</v>
-      </c>
       <c r="F18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="27">
-        <v>41337.638194444502</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G18" s="27"/>
       <c r="H18" s="30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1781,480 +1810,486 @@
     </row>
     <row r="20" spans="1:10" ht="90.75" customHeight="1">
       <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="E20" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="F20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="27">
+        <v>41493.534722222219</v>
+      </c>
+      <c r="H20" s="30">
+        <v>1</v>
+      </c>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="83.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="27">
-        <v>41262.579166666699</v>
-      </c>
-      <c r="H20" s="30">
-        <v>1</v>
-      </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" ht="83.25" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="D21" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="E21" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="F21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="27">
+        <v>41493.484722222223</v>
+      </c>
+      <c r="H21" s="30">
+        <v>1</v>
+      </c>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" ht="73.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="27">
-        <v>41262.586805555598</v>
-      </c>
-      <c r="H21" s="30">
-        <v>1</v>
-      </c>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" ht="85.5" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="E22" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="F22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="27">
+        <v>41493.536111111112</v>
+      </c>
+      <c r="H22" s="30">
+        <v>1</v>
+      </c>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="132" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="B23" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="27">
-        <v>41262.564583217601</v>
-      </c>
-      <c r="H22" s="31">
-        <v>1</v>
-      </c>
-      <c r="I22" s="28" t="s">
+      <c r="D23" s="25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="73.5" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="E23" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="F23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="27">
+        <v>41493.486111111109</v>
+      </c>
+      <c r="H23" s="30">
+        <v>1</v>
+      </c>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="113" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="27">
-        <v>41262.581250000003</v>
-      </c>
-      <c r="H23" s="30">
-        <v>1</v>
-      </c>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" ht="98.25" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="E24" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="F24" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="27">
+        <v>41493.496527777781</v>
+      </c>
+      <c r="H24" s="30">
+        <v>1</v>
+      </c>
+      <c r="I24" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="25" t="s">
+    </row>
+    <row r="25" spans="1:10" ht="171.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="B25" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="27">
+        <v>41493</v>
+      </c>
+      <c r="H25" s="31">
+        <v>1</v>
+      </c>
+      <c r="I25" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="25" t="s">
+    </row>
+    <row r="26" spans="1:10" ht="171.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="27">
-        <v>41262.581944328696</v>
-      </c>
-      <c r="H24" s="30">
-        <v>1</v>
-      </c>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:10" ht="113" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="F26" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="31">
+        <v>1</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="25" t="s">
+    </row>
+    <row r="27" spans="1:10" ht="153" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="27">
-        <v>41262.564583217601</v>
-      </c>
-      <c r="H25" s="30">
-        <v>1</v>
-      </c>
-      <c r="I25" s="28" t="s">
+      <c r="C27" s="24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="171.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="D27" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="E27" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="F27" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="27">
+        <v>41493</v>
+      </c>
+      <c r="H27" s="30">
+        <v>1</v>
+      </c>
+      <c r="I27" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="24" t="s">
+    </row>
+    <row r="28" spans="1:10" ht="109.5" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="27">
-        <v>41262.595833217601</v>
-      </c>
-      <c r="H26" s="31">
-        <v>1</v>
-      </c>
-      <c r="I26" s="28" t="s">
+      <c r="C28" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="171.25" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="D28" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="E28" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="F28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="27">
+        <v>41493</v>
+      </c>
+      <c r="H28" s="30">
+        <v>1</v>
+      </c>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:10" ht="128" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="C29" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="27">
-        <v>41262.601388888899</v>
-      </c>
-      <c r="H27" s="31">
-        <v>1</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="D29" s="25" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="153" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="E29" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="F29" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="27">
+        <v>406735.02083333331</v>
+      </c>
+      <c r="H29" s="30">
+        <v>1</v>
+      </c>
+      <c r="I29" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="24" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="109.5" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="27">
-        <v>41337.657638888901</v>
-      </c>
-      <c r="H28" s="30">
-        <v>1</v>
-      </c>
-      <c r="I28" s="28" t="s">
+      <c r="D30" s="25" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="109.5" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="E30" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="F30" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="27">
+        <v>41493.022916666669</v>
+      </c>
+      <c r="H30" s="31">
+        <v>1</v>
+      </c>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" ht="93.75" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="B31" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="C31" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="D31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="27">
-        <v>41337.6020832176</v>
-      </c>
-      <c r="H29" s="30">
-        <v>1</v>
-      </c>
-      <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:10" ht="124.5" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="E31" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="F31" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="27">
+        <v>41493.024305555555</v>
+      </c>
+      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="25" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="109.5" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="B32" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="C32" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="30">
-        <v>1</v>
-      </c>
-      <c r="I30" s="28" t="s">
+      <c r="D32" s="25" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="109.5" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="E32" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="F32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="27">
+        <v>41493.025694444441</v>
+      </c>
+      <c r="H32" s="30">
+        <v>1</v>
+      </c>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:13" ht="124.5" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="B33" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="C33" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="D33" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="28"/>
-    </row>
-    <row r="32" spans="1:10" ht="93.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="E33" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="F33" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="27">
+        <v>41493.026388888888</v>
+      </c>
+      <c r="H33" s="30">
+        <v>1</v>
+      </c>
+      <c r="I33" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="27">
-        <v>40973.6645832176</v>
-      </c>
-      <c r="H32" s="31">
-        <v>1</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="109.5" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="27">
-        <v>41262.604860995401</v>
-      </c>
-      <c r="H33" s="30">
-        <v>1</v>
-      </c>
-      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:13" ht="124.5" customHeight="1">
       <c r="A34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="27">
+        <v>41493.527083333334</v>
+      </c>
+      <c r="H34" s="30">
+        <v>1</v>
+      </c>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:13" ht="100" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="E36" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="27">
-        <v>41262.605555555601</v>
-      </c>
-      <c r="H34" s="30">
-        <v>1</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="124.5" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="27">
-        <v>41262.613888888904</v>
-      </c>
-      <c r="H35" s="30">
-        <v>1</v>
-      </c>
-      <c r="I35" s="28"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="F36" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="27">
+        <v>41493.527083333334</v>
+      </c>
+      <c r="H36" s="30">
+        <v>1</v>
+      </c>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:13" ht="100" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G37" s="27">
-        <v>41262.615972106498</v>
+        <v>41493.527083333334</v>
       </c>
       <c r="H37" s="30">
         <v>1</v>
@@ -2263,25 +2298,25 @@
     </row>
     <row r="38" spans="1:13" ht="100" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38" s="27">
-        <v>41262.615972106498</v>
+        <v>41493.527083333334</v>
       </c>
       <c r="H38" s="30">
         <v>1</v>
@@ -2290,25 +2325,25 @@
     </row>
     <row r="39" spans="1:13" ht="100" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39" s="27">
-        <v>41262.616666666698</v>
+        <v>41493.527083333334</v>
       </c>
       <c r="H39" s="30">
         <v>1</v>
@@ -2317,25 +2352,25 @@
     </row>
     <row r="40" spans="1:13" ht="100" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G40" s="27">
-        <v>41262.616666666698</v>
+        <v>41493.527083333334</v>
       </c>
       <c r="H40" s="30">
         <v>1</v>
@@ -2344,507 +2379,505 @@
     </row>
     <row r="41" spans="1:13" ht="100" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" s="27">
-        <v>41262.618055555598</v>
+        <v>41493.527083333334</v>
       </c>
       <c r="H41" s="30">
         <v>1</v>
       </c>
-      <c r="I41" s="28"/>
+      <c r="I41" s="28" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="100" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D42" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="27">
+        <v>41493.527083333334</v>
+      </c>
+      <c r="H42" s="30">
+        <v>1</v>
+      </c>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:13" ht="36" customHeight="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B44" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="27">
-        <v>41337.677083217597</v>
-      </c>
-      <c r="H42" s="30">
-        <v>1</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="100" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="27">
-        <v>41262.619444328702</v>
-      </c>
-      <c r="H43" s="30">
-        <v>1</v>
-      </c>
-      <c r="I43" s="28"/>
-    </row>
-    <row r="44" spans="1:13" ht="36" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B45" s="22" t="s">
-        <v>176</v>
-      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1">
+      <c r="B45" s="22"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-    </row>
-    <row r="47" spans="1:13" ht="75.75" customHeight="1">
+    <row r="46" spans="1:13" ht="112">
+      <c r="B46" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="52">
+        <v>41493.527777777781</v>
+      </c>
+      <c r="H46" s="19">
+        <v>1</v>
+      </c>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:13" ht="84">
       <c r="B47" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="53">
+        <v>41493.534722222219</v>
+      </c>
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:13" ht="98">
+      <c r="B48" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="52">
+        <v>41493.536111111112</v>
+      </c>
+      <c r="H48" s="37">
+        <v>1</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1024" s="44" customFormat="1" ht="42">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="54">
+        <v>41493.537499999999</v>
+      </c>
+      <c r="H49" s="42">
+        <v>1</v>
+      </c>
+      <c r="I49" s="43"/>
+      <c r="AMG49"/>
+      <c r="AMH49"/>
+      <c r="AMI49"/>
+      <c r="AMJ49"/>
+    </row>
+    <row r="50" spans="1:1024" ht="36" customHeight="1">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+    </row>
+    <row r="51" spans="1:1024" ht="15.75" customHeight="1">
+      <c r="B51" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="1:1024" ht="15" customHeight="1">
+      <c r="B52" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="1:1024" ht="61.5" customHeight="1">
+      <c r="B53" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C53" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="45">
+        <v>41493.53125</v>
+      </c>
+      <c r="H53" s="19">
+        <v>1</v>
+      </c>
+      <c r="I53" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="19">
-        <v>1</v>
-      </c>
-      <c r="I47" s="28"/>
-    </row>
-    <row r="48" spans="1:13" ht="70.5" customHeight="1">
-      <c r="B48" s="24" t="s">
+    </row>
+    <row r="54" spans="1:1024" ht="36" customHeight="1">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+    </row>
+    <row r="55" spans="1:1024" ht="15.75" customHeight="1">
+      <c r="B55" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="19">
-        <v>1</v>
-      </c>
-      <c r="I48" s="28"/>
-    </row>
-    <row r="49" spans="1:1024" ht="60" customHeight="1">
-      <c r="B49" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="37">
-        <v>1</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1024" s="44" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42">
-        <v>1</v>
-      </c>
-      <c r="I50" s="43"/>
-      <c r="AMG50"/>
-      <c r="AMH50"/>
-      <c r="AMI50"/>
-      <c r="AMJ50"/>
-    </row>
-    <row r="51" spans="1:1024" ht="36" customHeight="1">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-    </row>
-    <row r="52" spans="1:1024" ht="15.75" customHeight="1">
-      <c r="B52" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-    </row>
-    <row r="53" spans="1:1024" ht="15" customHeight="1">
-      <c r="B53" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-    </row>
-    <row r="54" spans="1:1024" ht="61.5" customHeight="1">
-      <c r="B54" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="45">
-        <v>41338.534722106502</v>
-      </c>
-      <c r="H54" s="19">
-        <v>1</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1024" ht="36" customHeight="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
     </row>
     <row r="56" spans="1:1024" ht="15.75" customHeight="1">
-      <c r="B56" s="22" t="s">
-        <v>194</v>
-      </c>
+      <c r="B56" s="22"/>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
     </row>
-    <row r="57" spans="1:1024" ht="15.75" customHeight="1">
-      <c r="B57" s="22"/>
+    <row r="57" spans="1:1024" ht="15" customHeight="1">
+      <c r="B57" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
     </row>
-    <row r="58" spans="1:1024" ht="15" customHeight="1">
-      <c r="B58" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-    </row>
-    <row r="59" spans="1:1024" ht="73.5" customHeight="1">
+    <row r="58" spans="1:1024" ht="73.5" customHeight="1">
+      <c r="B58" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="45">
+        <v>41493.541666666664</v>
+      </c>
+      <c r="H58" s="19">
+        <v>1</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1024" ht="72" customHeight="1">
       <c r="B59" s="24" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G59" s="45">
-        <v>41338.534722106502</v>
+        <v>41493.545138888891</v>
       </c>
       <c r="H59" s="19">
         <v>1</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1024" ht="72" customHeight="1">
-      <c r="B60" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="45">
-        <v>41338.534722106502</v>
-      </c>
-      <c r="H60" s="19">
-        <v>1</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1024" ht="15" customHeight="1">
-      <c r="B61" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-    </row>
-    <row r="62" spans="1:1024" ht="105" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1024" ht="15" customHeight="1">
+      <c r="B60" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="1:1024" ht="105" customHeight="1">
+      <c r="B61" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="52">
+        <v>41493.490277777775</v>
+      </c>
+      <c r="H61" s="19">
+        <v>1</v>
+      </c>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" spans="1:1024" ht="69.75" customHeight="1">
       <c r="B62" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="52">
+        <v>41493.490277777775</v>
+      </c>
       <c r="H62" s="19">
         <v>1</v>
       </c>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:1024" ht="69.75" customHeight="1">
-      <c r="B63" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="19">
-        <v>1</v>
-      </c>
-      <c r="I63" s="28"/>
-    </row>
-    <row r="64" spans="1:1024" s="44" customFormat="1" ht="49.5" customHeight="1">
+    <row r="63" spans="1:1024" s="44" customFormat="1" ht="56">
+      <c r="A63" s="38"/>
+      <c r="B63" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="54">
+        <v>41493.490972222222</v>
+      </c>
+      <c r="H63" s="42">
+        <v>1</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="AMG63"/>
+      <c r="AMH63"/>
+      <c r="AMI63"/>
+      <c r="AMJ63"/>
+    </row>
+    <row r="64" spans="1:1024" s="44" customFormat="1" ht="56">
       <c r="A64" s="38"/>
       <c r="B64" s="46" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
+        <v>174</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="54">
+        <v>41493.490972222222</v>
+      </c>
       <c r="H64" s="42">
         <v>1</v>
       </c>
-      <c r="I64" s="43" t="s">
-        <v>207</v>
-      </c>
+      <c r="I64" s="43"/>
       <c r="AMG64"/>
       <c r="AMH64"/>
       <c r="AMI64"/>
       <c r="AMJ64"/>
     </row>
-    <row r="65" spans="1:1024" s="44" customFormat="1" ht="64.5" customHeight="1">
+    <row r="65" spans="1:1024" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="A65" s="38"/>
-      <c r="B65" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>189</v>
-      </c>
+      <c r="B65" s="46"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
-      <c r="H65" s="42">
-        <v>1</v>
-      </c>
+      <c r="H65" s="42"/>
       <c r="I65" s="43"/>
       <c r="AMG65"/>
       <c r="AMH65"/>
       <c r="AMI65"/>
       <c r="AMJ65"/>
     </row>
-    <row r="66" spans="1:1024" s="44" customFormat="1" ht="60" customHeight="1">
-      <c r="A66" s="38"/>
-      <c r="B66" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42">
-        <v>1</v>
-      </c>
-      <c r="I66" s="43"/>
-      <c r="AMG66"/>
-      <c r="AMH66"/>
-      <c r="AMI66"/>
-      <c r="AMJ66"/>
-    </row>
-    <row r="67" spans="1:1024" ht="36" customHeight="1">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-    </row>
-    <row r="68" spans="1:1024" ht="30.75" customHeight="1">
-      <c r="B68" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="48"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-    </row>
-    <row r="69" spans="1:1024" ht="45" customHeight="1">
-      <c r="B69" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="19">
-        <v>1</v>
-      </c>
-      <c r="I69" s="28"/>
-    </row>
-    <row r="70" spans="1:1024" ht="36" customHeight="1">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-    </row>
+    <row r="66" spans="1:1024" ht="36" customHeight="1">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+    </row>
+    <row r="67" spans="1:1024" ht="30.75" customHeight="1">
+      <c r="B67" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+    </row>
+    <row r="68" spans="1:1024" ht="77" customHeight="1">
+      <c r="B68" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="28"/>
+    </row>
+    <row r="69" spans="1:1024" ht="36" customHeight="1">
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+    </row>
+    <row r="70" spans="1:1024" ht="14"/>
     <row r="71" spans="1:1024" ht="14"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
